--- a/tests/advanced/randomized_tests/b18.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b18.stpprocessed_rand_results_test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
@@ -32,6 +32,9 @@
     <t>S*-MM0</t>
   </si>
   <si>
+    <t>S*-unmerged</t>
+  </si>
+  <si>
     <t>var</t>
   </si>
   <si>
@@ -45,6 +48,9 @@
   </si>
   <si>
     <t>S*-MM0ND</t>
+  </si>
+  <si>
+    <t>S*-unmergedND</t>
   </si>
   <si>
     <t>expanded_nodes</t>
@@ -438,13 +444,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,8 +481,14 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -496,18 +508,24 @@
         <v>234</v>
       </c>
       <c r="G2">
+        <v>234</v>
+      </c>
+      <c r="H2">
         <v>0</v>
       </c>
-      <c r="H2" t="b">
+      <c r="I2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -518,7 +536,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -526,36 +544,36 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -564,28 +582,28 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>0.002035154495388269</v>
+        <v>0.0002528834156692028</v>
       </c>
       <c r="E2">
-        <v>0.8558652170468122</v>
+        <v>0.0882341880351305</v>
       </c>
       <c r="F2">
         <v>89</v>
       </c>
       <c r="G2">
-        <v>0.03210270067211241</v>
+        <v>0.005855589639395475</v>
       </c>
       <c r="H2">
-        <v>0.03759908478241414</v>
+        <v>0.008739808108657598</v>
       </c>
       <c r="I2">
-        <v>0.1890491644153371</v>
+        <v>0.02595866890624166</v>
       </c>
       <c r="J2">
-        <v>0.5748437893344089</v>
+        <v>0.0418023313395679</v>
       </c>
       <c r="K2">
-        <v>0.00580922479275614</v>
+        <v>0.00155286118388176</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -594,31 +612,31 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>0.3416250643786043</v>
+        <v>0.01589247630909085</v>
       </c>
       <c r="E3">
-        <v>2.2726057410473</v>
+        <v>0.1607294138520956</v>
       </c>
       <c r="F3">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="G3">
-        <v>0.03052488854154944</v>
+        <v>0.006541201379150152</v>
       </c>
       <c r="H3">
-        <v>0.3942609449150041</v>
+        <v>0.02589642256498337</v>
       </c>
       <c r="I3">
-        <v>0.8264926507836208</v>
+        <v>0.03434481145814061</v>
       </c>
       <c r="J3">
-        <v>0.9917940472951159</v>
+        <v>0.08713831612840295</v>
       </c>
       <c r="K3">
-        <v>0.007257660152390599</v>
+        <v>0.001783160958439112</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -630,28 +648,28 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>0.2254158734576777</v>
+        <v>0.01173340389505029</v>
       </c>
       <c r="E4">
-        <v>2.406646340037696</v>
+        <v>0.1082076001912355</v>
       </c>
       <c r="F4">
         <v>89</v>
       </c>
       <c r="G4">
-        <v>0.02964517660439014</v>
+        <v>0.004716493189334869</v>
       </c>
       <c r="H4">
-        <v>0.2594699675682932</v>
+        <v>0.01955632586032152</v>
       </c>
       <c r="I4">
-        <v>1.180349561502226</v>
+        <v>0.0252689509652555</v>
       </c>
       <c r="J4">
-        <v>0.9177226151805371</v>
+        <v>0.05366628710180521</v>
       </c>
       <c r="K4">
-        <v>0.004860135377384722</v>
+        <v>0.001326308120042086</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -663,192 +681,258 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>0.002249253448098898</v>
+        <v>0.0003391336649656296</v>
       </c>
       <c r="E5">
-        <v>0.7808352330466732</v>
+        <v>0.08121676882728934</v>
       </c>
       <c r="F5">
         <v>89</v>
       </c>
       <c r="G5">
-        <v>0.02891077660024166</v>
+        <v>0.004830142483115196</v>
       </c>
       <c r="H5">
-        <v>0.03577461291570216</v>
+        <v>0.008109018672257662</v>
       </c>
       <c r="I5">
-        <v>0.2113143848255277</v>
+        <v>0.02721800142899156</v>
       </c>
       <c r="J5">
-        <v>0.4836309944512323</v>
+        <v>0.03566908556967974</v>
       </c>
       <c r="K5">
-        <v>0.005341675598174334</v>
+        <v>0.001476496458053589</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C6">
+        <v>249</v>
+      </c>
+      <c r="D6">
+        <v>0.02072438318282366</v>
+      </c>
+      <c r="E6">
+        <v>0.3641448919661343</v>
+      </c>
+      <c r="F6">
+        <v>249</v>
+      </c>
+      <c r="G6">
+        <v>0.01134767848998308</v>
+      </c>
+      <c r="H6">
+        <v>0.04186933673918247</v>
+      </c>
+      <c r="I6">
+        <v>0.1592716756276786</v>
+      </c>
+      <c r="J6">
+        <v>0.1369445235468447</v>
+      </c>
+      <c r="K6">
+        <v>0.004433907102793455</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
         <v>5000</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>0.05065948260016739</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7">
-        <v>89</v>
-      </c>
-      <c r="D7">
-        <v>0.002035154495388269</v>
-      </c>
-      <c r="E7">
-        <v>0.8558652170468122</v>
-      </c>
-      <c r="F7">
-        <v>89</v>
-      </c>
-      <c r="G7">
-        <v>0.03210270067211241</v>
-      </c>
-      <c r="H7">
-        <v>0.03759908478241414</v>
-      </c>
-      <c r="I7">
-        <v>0.1890491644153371</v>
-      </c>
-      <c r="J7">
-        <v>0.5748437893344089</v>
-      </c>
-      <c r="K7">
-        <v>0.00580922479275614</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C8">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="D8">
-        <v>0.3416250643786043</v>
+        <v>0.0002528834156692028</v>
       </c>
       <c r="E8">
-        <v>2.2726057410473</v>
+        <v>0.0882341880351305</v>
       </c>
       <c r="F8">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="G8">
-        <v>0.03052488854154944</v>
+        <v>0.005855589639395475</v>
       </c>
       <c r="H8">
-        <v>0.3942609449150041</v>
+        <v>0.008739808108657598</v>
       </c>
       <c r="I8">
-        <v>0.8264926507836208</v>
+        <v>0.02595866890624166</v>
       </c>
       <c r="J8">
-        <v>0.9917940472951159</v>
+        <v>0.0418023313395679</v>
       </c>
       <c r="K8">
-        <v>0.007257660152390599</v>
+        <v>0.00155286118388176</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>89</v>
       </c>
       <c r="D9">
-        <v>0.2254158734576777</v>
+        <v>0.01589247630909085</v>
       </c>
       <c r="E9">
-        <v>2.406646340037696</v>
+        <v>0.1607294138520956</v>
       </c>
       <c r="F9">
         <v>89</v>
       </c>
       <c r="G9">
-        <v>0.02964517660439014</v>
+        <v>0.006541201379150152</v>
       </c>
       <c r="H9">
-        <v>0.2594699675682932</v>
+        <v>0.02589642256498337</v>
       </c>
       <c r="I9">
-        <v>1.180349561502226</v>
+        <v>0.03434481145814061</v>
       </c>
       <c r="J9">
-        <v>0.9177226151805371</v>
+        <v>0.08713831612840295</v>
       </c>
       <c r="K9">
-        <v>0.004860135377384722</v>
+        <v>0.001783160958439112</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>89</v>
       </c>
       <c r="D10">
-        <v>0.002249253448098898</v>
+        <v>0.01173340389505029</v>
       </c>
       <c r="E10">
-        <v>0.7808352330466732</v>
+        <v>0.1082076001912355</v>
       </c>
       <c r="F10">
         <v>89</v>
       </c>
       <c r="G10">
-        <v>0.02891077660024166</v>
+        <v>0.004716493189334869</v>
       </c>
       <c r="H10">
-        <v>0.03577461291570216</v>
+        <v>0.01955632586032152</v>
       </c>
       <c r="I10">
-        <v>0.2113143848255277</v>
+        <v>0.0252689509652555</v>
       </c>
       <c r="J10">
-        <v>0.4836309944512323</v>
+        <v>0.05366628710180521</v>
       </c>
       <c r="K10">
-        <v>0.005341675598174334</v>
+        <v>0.001326308120042086</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C11">
+        <v>89</v>
+      </c>
+      <c r="D11">
+        <v>0.0003391336649656296</v>
+      </c>
+      <c r="E11">
+        <v>0.08121676882728934</v>
+      </c>
+      <c r="F11">
+        <v>89</v>
+      </c>
+      <c r="G11">
+        <v>0.004830142483115196</v>
+      </c>
+      <c r="H11">
+        <v>0.008109018672257662</v>
+      </c>
+      <c r="I11">
+        <v>0.02721800142899156</v>
+      </c>
+      <c r="J11">
+        <v>0.03566908556967974</v>
+      </c>
+      <c r="K11">
+        <v>0.001476496458053589</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>249</v>
+      </c>
+      <c r="D12">
+        <v>0.02072438318282366</v>
+      </c>
+      <c r="E12">
+        <v>0.3641448919661343</v>
+      </c>
+      <c r="F12">
+        <v>249</v>
+      </c>
+      <c r="G12">
+        <v>0.01134767848998308</v>
+      </c>
+      <c r="H12">
+        <v>0.04186933673918247</v>
+      </c>
+      <c r="I12">
+        <v>0.1592716756276786</v>
+      </c>
+      <c r="J12">
+        <v>0.1369445235468447</v>
+      </c>
+      <c r="K12">
+        <v>0.004433907102793455</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
         <v>5000</v>
       </c>
-      <c r="E11">
+      <c r="E13">
         <v>0.05065948260016739</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/advanced/randomized_tests/b18.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b18.stpprocessed_rand_results_test.xlsx
@@ -582,28 +582,28 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>0.0002528834156692028</v>
+        <v>0.0004260065034031868</v>
       </c>
       <c r="E2">
-        <v>0.0882341880351305</v>
+        <v>0.1802364899776876</v>
       </c>
       <c r="F2">
         <v>89</v>
       </c>
       <c r="G2">
-        <v>0.005855589639395475</v>
+        <v>0.007283815648406744</v>
       </c>
       <c r="H2">
-        <v>0.008739808108657598</v>
+        <v>0.01174637861549854</v>
       </c>
       <c r="I2">
-        <v>0.02595866890624166</v>
+        <v>0.09016905352473259</v>
       </c>
       <c r="J2">
-        <v>0.0418023313395679</v>
+        <v>0.06408471148461103</v>
       </c>
       <c r="K2">
-        <v>0.00155286118388176</v>
+        <v>0.001822048798203468</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -615,28 +615,28 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>0.01589247630909085</v>
+        <v>0.009474779944866896</v>
       </c>
       <c r="E3">
-        <v>0.1607294138520956</v>
+        <v>0.144201691262424</v>
       </c>
       <c r="F3">
         <v>89</v>
       </c>
       <c r="G3">
-        <v>0.006541201379150152</v>
+        <v>0.005109652411192656</v>
       </c>
       <c r="H3">
-        <v>0.02589642256498337</v>
+        <v>0.01787005364894867</v>
       </c>
       <c r="I3">
-        <v>0.03434481145814061</v>
+        <v>0.05712607409805059</v>
       </c>
       <c r="J3">
-        <v>0.08713831612840295</v>
+        <v>0.05948562314733863</v>
       </c>
       <c r="K3">
-        <v>0.001783160958439112</v>
+        <v>0.001261336728930473</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -648,28 +648,28 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>0.01173340389505029</v>
+        <v>0.0146218161098659</v>
       </c>
       <c r="E4">
-        <v>0.1082076001912355</v>
+        <v>0.2114646527916193</v>
       </c>
       <c r="F4">
         <v>89</v>
       </c>
       <c r="G4">
-        <v>0.004716493189334869</v>
+        <v>0.006648097187280655</v>
       </c>
       <c r="H4">
-        <v>0.01955632586032152</v>
+        <v>0.02546107722446322</v>
       </c>
       <c r="I4">
-        <v>0.0252689509652555</v>
+        <v>0.08648623572662473</v>
       </c>
       <c r="J4">
-        <v>0.05366628710180521</v>
+        <v>0.08666269900277257</v>
       </c>
       <c r="K4">
-        <v>0.001326308120042086</v>
+        <v>0.001597088761627674</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -681,28 +681,28 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>0.0003391336649656296</v>
+        <v>0.0003816564567387104</v>
       </c>
       <c r="E5">
-        <v>0.08121676882728934</v>
+        <v>0.1162972971796989</v>
       </c>
       <c r="F5">
         <v>89</v>
       </c>
       <c r="G5">
-        <v>0.004830142483115196</v>
+        <v>0.004708411172032356</v>
       </c>
       <c r="H5">
-        <v>0.008109018672257662</v>
+        <v>0.008516036905348301</v>
       </c>
       <c r="I5">
-        <v>0.02721800142899156</v>
+        <v>0.0561062884517014</v>
       </c>
       <c r="J5">
-        <v>0.03566908556967974</v>
+        <v>0.04243542021140456</v>
       </c>
       <c r="K5">
-        <v>0.001476496458053589</v>
+        <v>0.001228276174515486</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -714,28 +714,28 @@
         <v>249</v>
       </c>
       <c r="D6">
-        <v>0.02072438318282366</v>
+        <v>0.0144741921685636</v>
       </c>
       <c r="E6">
-        <v>0.3641448919661343</v>
+        <v>0.880797129124403</v>
       </c>
       <c r="F6">
         <v>249</v>
       </c>
       <c r="G6">
-        <v>0.01134767848998308</v>
+        <v>0.0124666839838028</v>
       </c>
       <c r="H6">
-        <v>0.04186933673918247</v>
+        <v>0.03878881921991706</v>
       </c>
       <c r="I6">
-        <v>0.1592716756276786</v>
+        <v>0.7028697719797492</v>
       </c>
       <c r="J6">
-        <v>0.1369445235468447</v>
+        <v>0.1117980950511992</v>
       </c>
       <c r="K6">
-        <v>0.004433907102793455</v>
+        <v>0.004529315978288651</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -761,28 +761,28 @@
         <v>89</v>
       </c>
       <c r="D8">
-        <v>0.0002528834156692028</v>
+        <v>0.0004260065034031868</v>
       </c>
       <c r="E8">
-        <v>0.0882341880351305</v>
+        <v>0.1802364899776876</v>
       </c>
       <c r="F8">
         <v>89</v>
       </c>
       <c r="G8">
-        <v>0.005855589639395475</v>
+        <v>0.007283815648406744</v>
       </c>
       <c r="H8">
-        <v>0.008739808108657598</v>
+        <v>0.01174637861549854</v>
       </c>
       <c r="I8">
-        <v>0.02595866890624166</v>
+        <v>0.09016905352473259</v>
       </c>
       <c r="J8">
-        <v>0.0418023313395679</v>
+        <v>0.06408471148461103</v>
       </c>
       <c r="K8">
-        <v>0.00155286118388176</v>
+        <v>0.001822048798203468</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -794,28 +794,28 @@
         <v>89</v>
       </c>
       <c r="D9">
-        <v>0.01589247630909085</v>
+        <v>0.009474779944866896</v>
       </c>
       <c r="E9">
-        <v>0.1607294138520956</v>
+        <v>0.144201691262424</v>
       </c>
       <c r="F9">
         <v>89</v>
       </c>
       <c r="G9">
-        <v>0.006541201379150152</v>
+        <v>0.005109652411192656</v>
       </c>
       <c r="H9">
-        <v>0.02589642256498337</v>
+        <v>0.01787005364894867</v>
       </c>
       <c r="I9">
-        <v>0.03434481145814061</v>
+        <v>0.05712607409805059</v>
       </c>
       <c r="J9">
-        <v>0.08713831612840295</v>
+        <v>0.05948562314733863</v>
       </c>
       <c r="K9">
-        <v>0.001783160958439112</v>
+        <v>0.001261336728930473</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -827,28 +827,28 @@
         <v>89</v>
       </c>
       <c r="D10">
-        <v>0.01173340389505029</v>
+        <v>0.0146218161098659</v>
       </c>
       <c r="E10">
-        <v>0.1082076001912355</v>
+        <v>0.2114646527916193</v>
       </c>
       <c r="F10">
         <v>89</v>
       </c>
       <c r="G10">
-        <v>0.004716493189334869</v>
+        <v>0.006648097187280655</v>
       </c>
       <c r="H10">
-        <v>0.01955632586032152</v>
+        <v>0.02546107722446322</v>
       </c>
       <c r="I10">
-        <v>0.0252689509652555</v>
+        <v>0.08648623572662473</v>
       </c>
       <c r="J10">
-        <v>0.05366628710180521</v>
+        <v>0.08666269900277257</v>
       </c>
       <c r="K10">
-        <v>0.001326308120042086</v>
+        <v>0.001597088761627674</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -860,28 +860,28 @@
         <v>89</v>
       </c>
       <c r="D11">
-        <v>0.0003391336649656296</v>
+        <v>0.0003816564567387104</v>
       </c>
       <c r="E11">
-        <v>0.08121676882728934</v>
+        <v>0.1162972971796989</v>
       </c>
       <c r="F11">
         <v>89</v>
       </c>
       <c r="G11">
-        <v>0.004830142483115196</v>
+        <v>0.004708411172032356</v>
       </c>
       <c r="H11">
-        <v>0.008109018672257662</v>
+        <v>0.008516036905348301</v>
       </c>
       <c r="I11">
-        <v>0.02721800142899156</v>
+        <v>0.0561062884517014</v>
       </c>
       <c r="J11">
-        <v>0.03566908556967974</v>
+        <v>0.04243542021140456</v>
       </c>
       <c r="K11">
-        <v>0.001476496458053589</v>
+        <v>0.001228276174515486</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -893,28 +893,28 @@
         <v>249</v>
       </c>
       <c r="D12">
-        <v>0.02072438318282366</v>
+        <v>0.0144741921685636</v>
       </c>
       <c r="E12">
-        <v>0.3641448919661343</v>
+        <v>0.880797129124403</v>
       </c>
       <c r="F12">
         <v>249</v>
       </c>
       <c r="G12">
-        <v>0.01134767848998308</v>
+        <v>0.0124666839838028</v>
       </c>
       <c r="H12">
-        <v>0.04186933673918247</v>
+        <v>0.03878881921991706</v>
       </c>
       <c r="I12">
-        <v>0.1592716756276786</v>
+        <v>0.7028697719797492</v>
       </c>
       <c r="J12">
-        <v>0.1369445235468447</v>
+        <v>0.1117980950511992</v>
       </c>
       <c r="K12">
-        <v>0.004433907102793455</v>
+        <v>0.004529315978288651</v>
       </c>
     </row>
     <row r="13" spans="1:11">

--- a/tests/advanced/randomized_tests/b18.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b18.stpprocessed_rand_results_test.xlsx
@@ -15,42 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
   <si>
-    <t>S*-BS</t>
-  </si>
-  <si>
     <t>S*-HS</t>
   </si>
   <si>
-    <t>S*-MM</t>
-  </si>
-  <si>
-    <t>S*-MM0</t>
-  </si>
-  <si>
-    <t>S*-unmerged</t>
-  </si>
-  <si>
     <t>var</t>
   </si>
   <si>
-    <t>S*-BSND</t>
-  </si>
-  <si>
     <t>S*-HSND</t>
-  </si>
-  <si>
-    <t>S*-MMND</t>
-  </si>
-  <si>
-    <t>S*-MM0ND</t>
-  </si>
-  <si>
-    <t>S*-unmergedND</t>
   </si>
   <si>
     <t>expanded_nodes</t>
@@ -444,13 +420,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,32 +439,8 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -499,33 +451,9 @@
         <v>234</v>
       </c>
       <c r="D2">
-        <v>234</v>
-      </c>
-      <c r="E2">
-        <v>234</v>
-      </c>
-      <c r="F2">
-        <v>234</v>
-      </c>
-      <c r="G2">
-        <v>234</v>
-      </c>
-      <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="b">
+      <c r="E2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -536,7 +464,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -544,395 +472,131 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="D2">
-        <v>0.0004260065034031868</v>
+        <v>0.01543782511726022</v>
       </c>
       <c r="E2">
-        <v>0.1802364899776876</v>
+        <v>0.1372999111190438</v>
       </c>
       <c r="F2">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="G2">
-        <v>0.007283815648406744</v>
+        <v>0.007588868960738182</v>
       </c>
       <c r="H2">
-        <v>0.01174637861549854</v>
+        <v>0.02644164860248566</v>
       </c>
       <c r="I2">
-        <v>0.09016905352473259</v>
+        <v>0.05239931074902415</v>
       </c>
       <c r="J2">
-        <v>0.06408471148461103</v>
+        <v>0.04193725809454918</v>
       </c>
       <c r="K2">
-        <v>0.001822048798203468</v>
+        <v>0.003513058181852102</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>89</v>
-      </c>
-      <c r="D3">
-        <v>0.009474779944866896</v>
+        <v>5000</v>
       </c>
       <c r="E3">
-        <v>0.144201691262424</v>
-      </c>
-      <c r="F3">
-        <v>89</v>
-      </c>
-      <c r="G3">
-        <v>0.005109652411192656</v>
-      </c>
-      <c r="H3">
-        <v>0.01787005364894867</v>
-      </c>
-      <c r="I3">
-        <v>0.05712607409805059</v>
-      </c>
-      <c r="J3">
-        <v>0.05948562314733863</v>
-      </c>
-      <c r="K3">
-        <v>0.001261336728930473</v>
+        <v>0.05065948260016739</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="D4">
-        <v>0.0146218161098659</v>
+        <v>0.01543782511726022</v>
       </c>
       <c r="E4">
-        <v>0.2114646527916193</v>
+        <v>0.1372999111190438</v>
       </c>
       <c r="F4">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="G4">
-        <v>0.006648097187280655</v>
+        <v>0.007588868960738182</v>
       </c>
       <c r="H4">
-        <v>0.02546107722446322</v>
+        <v>0.02644164860248566</v>
       </c>
       <c r="I4">
-        <v>0.08648623572662473</v>
+        <v>0.05239931074902415</v>
       </c>
       <c r="J4">
-        <v>0.08666269900277257</v>
+        <v>0.04193725809454918</v>
       </c>
       <c r="K4">
-        <v>0.001597088761627674</v>
+        <v>0.003513058181852102</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>89</v>
-      </c>
-      <c r="D5">
-        <v>0.0003816564567387104</v>
+        <v>5000</v>
       </c>
       <c r="E5">
-        <v>0.1162972971796989</v>
-      </c>
-      <c r="F5">
-        <v>89</v>
-      </c>
-      <c r="G5">
-        <v>0.004708411172032356</v>
-      </c>
-      <c r="H5">
-        <v>0.008516036905348301</v>
-      </c>
-      <c r="I5">
-        <v>0.0561062884517014</v>
-      </c>
-      <c r="J5">
-        <v>0.04243542021140456</v>
-      </c>
-      <c r="K5">
-        <v>0.001228276174515486</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>249</v>
-      </c>
-      <c r="D6">
-        <v>0.0144741921685636</v>
-      </c>
-      <c r="E6">
-        <v>0.880797129124403</v>
-      </c>
-      <c r="F6">
-        <v>249</v>
-      </c>
-      <c r="G6">
-        <v>0.0124666839838028</v>
-      </c>
-      <c r="H6">
-        <v>0.03878881921991706</v>
-      </c>
-      <c r="I6">
-        <v>0.7028697719797492</v>
-      </c>
-      <c r="J6">
-        <v>0.1117980950511992</v>
-      </c>
-      <c r="K6">
-        <v>0.004529315978288651</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>5000</v>
-      </c>
-      <c r="E7">
-        <v>0.05065948260016739</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>89</v>
-      </c>
-      <c r="D8">
-        <v>0.0004260065034031868</v>
-      </c>
-      <c r="E8">
-        <v>0.1802364899776876</v>
-      </c>
-      <c r="F8">
-        <v>89</v>
-      </c>
-      <c r="G8">
-        <v>0.007283815648406744</v>
-      </c>
-      <c r="H8">
-        <v>0.01174637861549854</v>
-      </c>
-      <c r="I8">
-        <v>0.09016905352473259</v>
-      </c>
-      <c r="J8">
-        <v>0.06408471148461103</v>
-      </c>
-      <c r="K8">
-        <v>0.001822048798203468</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>89</v>
-      </c>
-      <c r="D9">
-        <v>0.009474779944866896</v>
-      </c>
-      <c r="E9">
-        <v>0.144201691262424</v>
-      </c>
-      <c r="F9">
-        <v>89</v>
-      </c>
-      <c r="G9">
-        <v>0.005109652411192656</v>
-      </c>
-      <c r="H9">
-        <v>0.01787005364894867</v>
-      </c>
-      <c r="I9">
-        <v>0.05712607409805059</v>
-      </c>
-      <c r="J9">
-        <v>0.05948562314733863</v>
-      </c>
-      <c r="K9">
-        <v>0.001261336728930473</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>89</v>
-      </c>
-      <c r="D10">
-        <v>0.0146218161098659</v>
-      </c>
-      <c r="E10">
-        <v>0.2114646527916193</v>
-      </c>
-      <c r="F10">
-        <v>89</v>
-      </c>
-      <c r="G10">
-        <v>0.006648097187280655</v>
-      </c>
-      <c r="H10">
-        <v>0.02546107722446322</v>
-      </c>
-      <c r="I10">
-        <v>0.08648623572662473</v>
-      </c>
-      <c r="J10">
-        <v>0.08666269900277257</v>
-      </c>
-      <c r="K10">
-        <v>0.001597088761627674</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>89</v>
-      </c>
-      <c r="D11">
-        <v>0.0003816564567387104</v>
-      </c>
-      <c r="E11">
-        <v>0.1162972971796989</v>
-      </c>
-      <c r="F11">
-        <v>89</v>
-      </c>
-      <c r="G11">
-        <v>0.004708411172032356</v>
-      </c>
-      <c r="H11">
-        <v>0.008516036905348301</v>
-      </c>
-      <c r="I11">
-        <v>0.0561062884517014</v>
-      </c>
-      <c r="J11">
-        <v>0.04243542021140456</v>
-      </c>
-      <c r="K11">
-        <v>0.001228276174515486</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>249</v>
-      </c>
-      <c r="D12">
-        <v>0.0144741921685636</v>
-      </c>
-      <c r="E12">
-        <v>0.880797129124403</v>
-      </c>
-      <c r="F12">
-        <v>249</v>
-      </c>
-      <c r="G12">
-        <v>0.0124666839838028</v>
-      </c>
-      <c r="H12">
-        <v>0.03878881921991706</v>
-      </c>
-      <c r="I12">
-        <v>0.7028697719797492</v>
-      </c>
-      <c r="J12">
-        <v>0.1117980950511992</v>
-      </c>
-      <c r="K12">
-        <v>0.004529315978288651</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13">
-        <v>5000</v>
-      </c>
-      <c r="E13">
         <v>0.05065948260016739</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/advanced/randomized_tests/b18.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b18.stpprocessed_rand_results_test.xlsx
@@ -15,18 +15,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
   <si>
+    <t>S*-BS</t>
+  </si>
+  <si>
     <t>S*-HS</t>
   </si>
   <si>
+    <t>S*-MM</t>
+  </si>
+  <si>
+    <t>S*-MM0</t>
+  </si>
+  <si>
+    <t>S*-BS-UN</t>
+  </si>
+  <si>
+    <t>S*-HS-UN</t>
+  </si>
+  <si>
+    <t>S*-MM-UN</t>
+  </si>
+  <si>
+    <t>S*-MM0-UN</t>
+  </si>
+  <si>
     <t>var</t>
   </si>
   <si>
+    <t>S*-BSND</t>
+  </si>
+  <si>
     <t>S*-HSND</t>
+  </si>
+  <si>
+    <t>S*-MMND</t>
+  </si>
+  <si>
+    <t>S*-MM0ND</t>
+  </si>
+  <si>
+    <t>S*-BS-UNND</t>
+  </si>
+  <si>
+    <t>S*-HS-UNND</t>
+  </si>
+  <si>
+    <t>S*-MM-UNND</t>
+  </si>
+  <si>
+    <t>S*-MM0-UNND</t>
   </si>
   <si>
     <t>expanded_nodes</t>
@@ -420,13 +462,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,8 +481,50 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -451,9 +535,51 @@
         <v>234</v>
       </c>
       <c r="D2">
+        <v>234</v>
+      </c>
+      <c r="E2">
+        <v>234</v>
+      </c>
+      <c r="F2">
+        <v>234</v>
+      </c>
+      <c r="G2">
+        <v>234</v>
+      </c>
+      <c r="H2">
+        <v>234</v>
+      </c>
+      <c r="I2">
+        <v>234</v>
+      </c>
+      <c r="J2">
+        <v>234</v>
+      </c>
+      <c r="K2">
         <v>0</v>
       </c>
-      <c r="E2" t="b">
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -464,7 +590,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -472,131 +598,593 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>0.01543782511726022</v>
+        <v>0.0006694840267300606</v>
       </c>
       <c r="E2">
-        <v>0.1372999111190438</v>
+        <v>0.1064092870801687</v>
       </c>
       <c r="F2">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="G2">
-        <v>0.007588868960738182</v>
+        <v>0.008407099172472954</v>
       </c>
       <c r="H2">
-        <v>0.02644164860248566</v>
+        <v>0.01027502445504069</v>
       </c>
       <c r="I2">
-        <v>0.05239931074902415</v>
+        <v>0.04295030329376459</v>
       </c>
       <c r="J2">
-        <v>0.04193725809454918</v>
+        <v>0.03563056979328394</v>
       </c>
       <c r="K2">
-        <v>0.003513058181852102</v>
+        <v>0.003526931162923574</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>5000</v>
+        <v>142</v>
+      </c>
+      <c r="D3">
+        <v>0.01608998468145728</v>
       </c>
       <c r="E3">
-        <v>0.05065948260016739</v>
+        <v>0.1401290209032595</v>
+      </c>
+      <c r="F3">
+        <v>142</v>
+      </c>
+      <c r="G3">
+        <v>0.008158631157130003</v>
+      </c>
+      <c r="H3">
+        <v>0.02752508316189051</v>
+      </c>
+      <c r="I3">
+        <v>0.05071327462792397</v>
+      </c>
+      <c r="J3">
+        <v>0.04466177569702268</v>
+      </c>
+      <c r="K3">
+        <v>0.003675303421914577</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="D4">
-        <v>0.01543782511726022</v>
+        <v>0.01452200533822179</v>
       </c>
       <c r="E4">
-        <v>0.1372999111190438</v>
+        <v>0.14477609237656</v>
       </c>
       <c r="F4">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="G4">
-        <v>0.007588868960738182</v>
+        <v>0.008010575082153082</v>
       </c>
       <c r="H4">
-        <v>0.02644164860248566</v>
+        <v>0.02421487215906382</v>
       </c>
       <c r="I4">
-        <v>0.05239931074902415</v>
+        <v>0.04364700289443135</v>
       </c>
       <c r="J4">
-        <v>0.04193725809454918</v>
+        <v>0.06075496738776565</v>
       </c>
       <c r="K4">
-        <v>0.003513058181852102</v>
+        <v>0.003203596919775009</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C5">
+        <v>89</v>
+      </c>
+      <c r="D5">
+        <v>0.0003688707947731018</v>
+      </c>
+      <c r="E5">
+        <v>0.08508670888841152</v>
+      </c>
+      <c r="F5">
+        <v>89</v>
+      </c>
+      <c r="G5">
+        <v>0.005923946388065815</v>
+      </c>
+      <c r="H5">
+        <v>0.008015534840524197</v>
+      </c>
+      <c r="I5">
+        <v>0.03535296581685543</v>
+      </c>
+      <c r="J5">
+        <v>0.02934441016986966</v>
+      </c>
+      <c r="K5">
+        <v>0.002476765308529139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>249</v>
+      </c>
+      <c r="D6">
+        <v>0.001429160125553608</v>
+      </c>
+      <c r="E6">
+        <v>0.315207805018872</v>
+      </c>
+      <c r="F6">
+        <v>249</v>
+      </c>
+      <c r="G6">
+        <v>0.01332735130563378</v>
+      </c>
+      <c r="H6">
+        <v>0.02047889586538076</v>
+      </c>
+      <c r="I6">
+        <v>0.23134377412498</v>
+      </c>
+      <c r="J6">
+        <v>0.03352968767285347</v>
+      </c>
+      <c r="K6">
+        <v>0.007271402049809694</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1200</v>
+      </c>
+      <c r="D7">
+        <v>0.04681817023083568</v>
+      </c>
+      <c r="E7">
+        <v>2.093917768914253</v>
+      </c>
+      <c r="F7">
+        <v>1200</v>
+      </c>
+      <c r="G7">
+        <v>0.06212157011032104</v>
+      </c>
+      <c r="H7">
+        <v>0.1402589860372245</v>
+      </c>
+      <c r="I7">
+        <v>1.568867177702487</v>
+      </c>
+      <c r="J7">
+        <v>0.2454145904630423</v>
+      </c>
+      <c r="K7">
+        <v>0.0334434169344604</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>249</v>
+      </c>
+      <c r="D8">
+        <v>0.01592586701735854</v>
+      </c>
+      <c r="E8">
+        <v>0.3995013423264027</v>
+      </c>
+      <c r="F8">
+        <v>249</v>
+      </c>
+      <c r="G8">
+        <v>0.01250140275806189</v>
+      </c>
+      <c r="H8">
+        <v>0.03674243809655309</v>
+      </c>
+      <c r="I8">
+        <v>0.2408470283262432</v>
+      </c>
+      <c r="J8">
+        <v>0.09336719522252679</v>
+      </c>
+      <c r="K8">
+        <v>0.006903997156769037</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>249</v>
+      </c>
+      <c r="D9">
+        <v>0.001883236225694418</v>
+      </c>
+      <c r="E9">
+        <v>0.3286195951513946</v>
+      </c>
+      <c r="F9">
+        <v>249</v>
+      </c>
+      <c r="G9">
+        <v>0.01283159572631121</v>
+      </c>
+      <c r="H9">
+        <v>0.02275160932913423</v>
+      </c>
+      <c r="I9">
+        <v>0.2426164224743843</v>
+      </c>
+      <c r="J9">
+        <v>0.03431783802807331</v>
+      </c>
+      <c r="K9">
+        <v>0.006798157468438148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
         <v>5000</v>
       </c>
-      <c r="E5">
+      <c r="E10">
+        <v>0.05065948260016739</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>89</v>
+      </c>
+      <c r="D11">
+        <v>0.0006694840267300606</v>
+      </c>
+      <c r="E11">
+        <v>0.1064092870801687</v>
+      </c>
+      <c r="F11">
+        <v>89</v>
+      </c>
+      <c r="G11">
+        <v>0.008407099172472954</v>
+      </c>
+      <c r="H11">
+        <v>0.01027502445504069</v>
+      </c>
+      <c r="I11">
+        <v>0.04295030329376459</v>
+      </c>
+      <c r="J11">
+        <v>0.03563056979328394</v>
+      </c>
+      <c r="K11">
+        <v>0.003526931162923574</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>142</v>
+      </c>
+      <c r="D12">
+        <v>0.01608998468145728</v>
+      </c>
+      <c r="E12">
+        <v>0.1401290209032595</v>
+      </c>
+      <c r="F12">
+        <v>142</v>
+      </c>
+      <c r="G12">
+        <v>0.008158631157130003</v>
+      </c>
+      <c r="H12">
+        <v>0.02752508316189051</v>
+      </c>
+      <c r="I12">
+        <v>0.05071327462792397</v>
+      </c>
+      <c r="J12">
+        <v>0.04466177569702268</v>
+      </c>
+      <c r="K12">
+        <v>0.003675303421914577</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>89</v>
+      </c>
+      <c r="D13">
+        <v>0.01452200533822179</v>
+      </c>
+      <c r="E13">
+        <v>0.14477609237656</v>
+      </c>
+      <c r="F13">
+        <v>89</v>
+      </c>
+      <c r="G13">
+        <v>0.008010575082153082</v>
+      </c>
+      <c r="H13">
+        <v>0.02421487215906382</v>
+      </c>
+      <c r="I13">
+        <v>0.04364700289443135</v>
+      </c>
+      <c r="J13">
+        <v>0.06075496738776565</v>
+      </c>
+      <c r="K13">
+        <v>0.003203596919775009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>89</v>
+      </c>
+      <c r="D14">
+        <v>0.0003688707947731018</v>
+      </c>
+      <c r="E14">
+        <v>0.08508670888841152</v>
+      </c>
+      <c r="F14">
+        <v>89</v>
+      </c>
+      <c r="G14">
+        <v>0.005923946388065815</v>
+      </c>
+      <c r="H14">
+        <v>0.008015534840524197</v>
+      </c>
+      <c r="I14">
+        <v>0.03535296581685543</v>
+      </c>
+      <c r="J14">
+        <v>0.02934441016986966</v>
+      </c>
+      <c r="K14">
+        <v>0.002476765308529139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>249</v>
+      </c>
+      <c r="D15">
+        <v>0.001429160125553608</v>
+      </c>
+      <c r="E15">
+        <v>0.315207805018872</v>
+      </c>
+      <c r="F15">
+        <v>249</v>
+      </c>
+      <c r="G15">
+        <v>0.01332735130563378</v>
+      </c>
+      <c r="H15">
+        <v>0.02047889586538076</v>
+      </c>
+      <c r="I15">
+        <v>0.23134377412498</v>
+      </c>
+      <c r="J15">
+        <v>0.03352968767285347</v>
+      </c>
+      <c r="K15">
+        <v>0.007271402049809694</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>1200</v>
+      </c>
+      <c r="D16">
+        <v>0.04681817023083568</v>
+      </c>
+      <c r="E16">
+        <v>2.093917768914253</v>
+      </c>
+      <c r="F16">
+        <v>1200</v>
+      </c>
+      <c r="G16">
+        <v>0.06212157011032104</v>
+      </c>
+      <c r="H16">
+        <v>0.1402589860372245</v>
+      </c>
+      <c r="I16">
+        <v>1.568867177702487</v>
+      </c>
+      <c r="J16">
+        <v>0.2454145904630423</v>
+      </c>
+      <c r="K16">
+        <v>0.0334434169344604</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>249</v>
+      </c>
+      <c r="D17">
+        <v>0.01592586701735854</v>
+      </c>
+      <c r="E17">
+        <v>0.3995013423264027</v>
+      </c>
+      <c r="F17">
+        <v>249</v>
+      </c>
+      <c r="G17">
+        <v>0.01250140275806189</v>
+      </c>
+      <c r="H17">
+        <v>0.03674243809655309</v>
+      </c>
+      <c r="I17">
+        <v>0.2408470283262432</v>
+      </c>
+      <c r="J17">
+        <v>0.09336719522252679</v>
+      </c>
+      <c r="K17">
+        <v>0.006903997156769037</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>249</v>
+      </c>
+      <c r="D18">
+        <v>0.001883236225694418</v>
+      </c>
+      <c r="E18">
+        <v>0.3286195951513946</v>
+      </c>
+      <c r="F18">
+        <v>249</v>
+      </c>
+      <c r="G18">
+        <v>0.01283159572631121</v>
+      </c>
+      <c r="H18">
+        <v>0.02275160932913423</v>
+      </c>
+      <c r="I18">
+        <v>0.2426164224743843</v>
+      </c>
+      <c r="J18">
+        <v>0.03431783802807331</v>
+      </c>
+      <c r="K18">
+        <v>0.006798157468438148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>5000</v>
+      </c>
+      <c r="E19">
         <v>0.05065948260016739</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
